--- a/data_output/prism_passive/all_passive_torque at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at subject max ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>50.527122689444852</v>
+        <v>50.527122148088694</v>
       </c>
       <c r="C2">
-        <v>39.627112981645226</v>
+        <v>39.627112478711766</v>
       </c>
       <c r="D2">
-        <v>23.391265451393782</v>
+        <v>23.391265325156944</v>
       </c>
       <c r="E2">
-        <v>33.698163769691412</v>
+        <v>33.698163596802921</v>
       </c>
       <c r="F2">
-        <v>34.172477383416371</v>
+        <v>34.172477094919429</v>
       </c>
       <c r="G2">
-        <v>37.078307376290311</v>
+        <v>37.078307157731551</v>
       </c>
       <c r="H2">
-        <v>49.092696347902802</v>
+        <v>49.092695866539067</v>
       </c>
       <c r="I2">
-        <v>32.677158761202307</v>
+        <v>32.677158653152226</v>
       </c>
       <c r="J2">
-        <v>54.619955549891507</v>
+        <v>54.619955004463748</v>
       </c>
       <c r="K2">
-        <v>36.354963405608537</v>
+        <v>36.354963162015089</v>
       </c>
       <c r="L2">
-        <v>25.932378390790241</v>
+        <v>25.93237818770805</v>
       </c>
       <c r="M2">
-        <v>40.226795945058882</v>
+        <v>40.226795761325427</v>
       </c>
       <c r="N2">
-        <v>35.442212333826021</v>
+        <v>35.442212065334019</v>
       </c>
       <c r="O2">
-        <v>16.919941764507684</v>
+        <v>16.91994172916273</v>
       </c>
       <c r="P2">
-        <v>47.806079386458421</v>
+        <v>47.806078891121288</v>
       </c>
       <c r="Q2">
-        <v>26.779517072611366</v>
+        <v>26.779516975570907</v>
       </c>
       <c r="R2">
-        <v>45.338958723437401</v>
+        <v>45.338958588367881</v>
       </c>
       <c r="S2">
-        <v>62.260593042368683</v>
+        <v>62.26059274105355</v>
       </c>
       <c r="T2">
-        <v>40.562163439973958</v>
+        <v>40.562163364559595</v>
       </c>
       <c r="U2">
-        <v>20.091765483509683</v>
+        <v>20.09176538990442</v>
       </c>
       <c r="V2">
-        <v>39.948874237670339</v>
+        <v>39.948874122430169</v>
       </c>
       <c r="W2">
-        <v>28.4315494084309</v>
+        <v>28.431549232299087</v>
       </c>
       <c r="X2">
-        <v>18.417483138447832</v>
+        <v>18.41748302787072</v>
       </c>
       <c r="Y2">
-        <v>29.375140125682389</v>
+        <v>29.375140020878494</v>
       </c>
       <c r="Z2">
-        <v>13.052702851088162</v>
+        <v>13.05270282960625</v>
       </c>
       <c r="AA2">
-        <v>57.742668193010218</v>
+        <v>57.742667589271406</v>
       </c>
       <c r="AB2">
-        <v>23.727963419372429</v>
+        <v>23.727963151804129</v>
       </c>
       <c r="AC2">
-        <v>18.187030551786542</v>
+        <v>18.187030440305943</v>
       </c>
       <c r="AD2">
-        <v>18.431904718849687</v>
+        <v>18.431904603855042</v>
       </c>
       <c r="AE2">
-        <v>21.199528229553959</v>
+        <v>21.199528078815341</v>
       </c>
       <c r="AF2">
-        <v>42.135518098766575</v>
+        <v>42.135517774933014</v>
       </c>
       <c r="AG2">
-        <v>26.767117151249128</v>
+        <v>26.767116875565321</v>
       </c>
       <c r="AH2">
-        <v>28.411608367252491</v>
+        <v>28.411608282156337</v>
       </c>
       <c r="AI2">
-        <v>46.145621516030296</v>
+        <v>46.145621076055157</v>
       </c>
       <c r="AJ2">
-        <v>47.821912264185904</v>
+        <v>47.821911984258186</v>
       </c>
       <c r="AK2">
-        <v>22.019821519843106</v>
+        <v>22.019821371140196</v>
       </c>
       <c r="AL2">
-        <v>36.158327095855533</v>
+        <v>36.158327019084282</v>
       </c>
       <c r="AM2">
-        <v>43.267871876693356</v>
+        <v>43.267871647130441</v>
       </c>
       <c r="AN2">
-        <v>17.250323422612791</v>
+        <v>17.250323394460089</v>
       </c>
       <c r="AO2">
-        <v>34.889511140609237</v>
+        <v>34.889510960917157</v>
       </c>
       <c r="AP2">
-        <v>26.94080768420406</v>
+        <v>26.940807601351366</v>
       </c>
       <c r="AQ2">
-        <v>32.81465249446542</v>
+        <v>32.814652433507206</v>
       </c>
       <c r="AR2">
-        <v>39.359706194750387</v>
+        <v>39.359705959396756</v>
       </c>
       <c r="AS2">
-        <v>35.852436830412259</v>
+        <v>35.852436724226202</v>
       </c>
       <c r="AT2">
-        <v>14.63088475751972</v>
+        <v>14.630884727797516</v>
       </c>
       <c r="AU2">
-        <v>38.871435066270571</v>
+        <v>38.871434939547839</v>
       </c>
       <c r="AV2">
-        <v>20.542813235122264</v>
+        <v>20.542813141795957</v>
       </c>
       <c r="AW2">
-        <v>14.347019821265167</v>
+        <v>14.347019758633101</v>
       </c>
       <c r="AX2">
-        <v>20.915841232251253</v>
+        <v>20.915841176607717</v>
       </c>
       <c r="AY2">
-        <v>13.904663516854754</v>
+        <v>13.904663490149789</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>67.254424296889312</v>
+        <v>67.254423219617664</v>
       </c>
       <c r="C3">
-        <v>29.449081121345081</v>
+        <v>29.449080846376461</v>
       </c>
       <c r="D3">
-        <v>23.203593545975512</v>
+        <v>23.203593400868986</v>
       </c>
       <c r="E3">
-        <v>75.556689850225325</v>
+        <v>75.556689336630654</v>
       </c>
       <c r="F3">
-        <v>16.986726310636701</v>
+        <v>16.986726230629468</v>
       </c>
       <c r="G3">
-        <v>43.08100861559717</v>
+        <v>43.081008379014548</v>
       </c>
       <c r="H3">
-        <v>54.176363421133026</v>
+        <v>54.176362904800982</v>
       </c>
       <c r="I3">
-        <v>33.33819927628555</v>
+        <v>33.338199202490017</v>
       </c>
       <c r="J3">
-        <v>51.681447712005877</v>
+        <v>51.681447161072349</v>
       </c>
       <c r="K3">
-        <v>42.580395953829793</v>
+        <v>42.580395753773104</v>
       </c>
       <c r="L3">
-        <v>41.052787118680357</v>
+        <v>41.052786819545439</v>
       </c>
       <c r="M3">
-        <v>40.677767253796816</v>
+        <v>40.679508361497945</v>
       </c>
       <c r="N3">
-        <v>43.544802373165524</v>
+        <v>43.54480212202661</v>
       </c>
       <c r="O3">
-        <v>20.879199691273612</v>
+        <v>20.879199632990222</v>
       </c>
       <c r="P3">
-        <v>54.227157700781348</v>
+        <v>54.227157206953116</v>
       </c>
       <c r="Q3">
-        <v>31.532885031932878</v>
+        <v>31.532884890972621</v>
       </c>
       <c r="R3">
-        <v>24.454642084520042</v>
+        <v>24.454642024287025</v>
       </c>
       <c r="S3">
-        <v>45.209256456248298</v>
+        <v>45.209256235357884</v>
       </c>
       <c r="T3">
-        <v>39.831685615748398</v>
+        <v>39.831685517793041</v>
       </c>
       <c r="U3">
-        <v>25.436977259505802</v>
+        <v>25.436977173918557</v>
       </c>
       <c r="V3">
-        <v>42.560437750104612</v>
+        <v>42.560437574939655</v>
       </c>
       <c r="W3">
-        <v>28.496799946970761</v>
+        <v>28.496799747669417</v>
       </c>
       <c r="X3">
-        <v>24.269105141497064</v>
+        <v>24.269104960977515</v>
       </c>
       <c r="Y3">
-        <v>27.124724741552775</v>
+        <v>27.124724642235154</v>
       </c>
       <c r="Z3">
-        <v>16.47702639080963</v>
+        <v>16.477026362782993</v>
       </c>
       <c r="AA3">
-        <v>45.787567020186486</v>
+        <v>45.787566399543479</v>
       </c>
       <c r="AB3">
-        <v>25.904425214352845</v>
+        <v>25.90442495388028</v>
       </c>
       <c r="AC3">
-        <v>17.79630451081459</v>
+        <v>17.796304441218066</v>
       </c>
       <c r="AD3">
-        <v>33.292069682439738</v>
+        <v>33.292069428145439</v>
       </c>
       <c r="AE3">
-        <v>16.135760857415889</v>
+        <v>16.13576076318386</v>
       </c>
       <c r="AF3">
-        <v>31.218675223533694</v>
+        <v>31.21867498110548</v>
       </c>
       <c r="AG3">
-        <v>30.505869205048416</v>
+        <v>30.50586891436966</v>
       </c>
       <c r="AH3">
-        <v>32.973603705904949</v>
+        <v>32.973603643814762</v>
       </c>
       <c r="AI3">
-        <v>34.468970335579812</v>
+        <v>34.468970038281405</v>
       </c>
       <c r="AJ3">
-        <v>47.646743687184099</v>
+        <v>47.646743454238013</v>
       </c>
       <c r="AK3">
-        <v>24.897744377290547</v>
+        <v>24.897744234982955</v>
       </c>
       <c r="AL3">
-        <v>29.833535560623329</v>
+        <v>29.833535459243762</v>
       </c>
       <c r="AM3">
-        <v>48.22783013846432</v>
+        <v>48.227829849952386</v>
       </c>
       <c r="AN3">
-        <v>16.874954022635102</v>
+        <v>16.874953978815267</v>
       </c>
       <c r="AO3">
-        <v>40.913077854669616</v>
+        <v>40.913077590392639</v>
       </c>
       <c r="AP3">
-        <v>27.361551451164882</v>
+        <v>27.361551358234042</v>
       </c>
       <c r="AQ3">
-        <v>22.482643130961851</v>
+        <v>22.482643075449936</v>
       </c>
       <c r="AR3">
-        <v>37.682727765557686</v>
+        <v>37.6827276375341</v>
       </c>
       <c r="AS3">
-        <v>30.242199697781263</v>
+        <v>30.242199624110953</v>
       </c>
       <c r="AT3">
-        <v>14.546385885002003</v>
+        <v>14.546385852814602</v>
       </c>
       <c r="AU3">
-        <v>39.154548052021752</v>
+        <v>39.154547958237586</v>
       </c>
       <c r="AV3">
-        <v>20.176510219325564</v>
+        <v>20.176510126225136</v>
       </c>
       <c r="AW3">
-        <v>16.624534641343129</v>
+        <v>16.624534578835664</v>
       </c>
       <c r="AX3">
-        <v>27.777123522898815</v>
+        <v>27.777123440652883</v>
       </c>
       <c r="AY3">
-        <v>19.286854527779894</v>
+        <v>19.286854464529206</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_torque at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at subject max ROM.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>50.527122148088694</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>39.627112478711766</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>23.391265325156944</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>33.698163596802921</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>34.172477094919429</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>37.078307157731551</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>49.092695866539067</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>32.677158653152226</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>54.619955004463748</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>36.354963162015089</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>25.93237818770805</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>40.226795761325427</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>35.442212065334019</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.91994172916273</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>47.806078891121288</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>26.779516975570907</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>45.338958588367881</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>62.26059274105355</v>
@@ -588,55 +477,55 @@
         <v>13.05270282960625</v>
       </c>
       <c r="AA2">
-        <v>57.742667589271406</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>23.727963151804129</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>18.187030440305943</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>18.431904603855042</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>21.199528078815341</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>42.135517774933014</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>26.767116875565321</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>28.411608282156337</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>46.145621076055157</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>47.821911984258186</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>22.019821371140196</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>36.158327019084282</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>43.267871647130441</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>17.250323394460089</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>34.889510960917157</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>26.940807601351366</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>32.814652433507206</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>39.359705959396756</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>67.254423219617664</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>29.449080846376461</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>23.203593400868986</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>75.556689336630654</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>16.986726230629468</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>43.081008379014548</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>54.176362904800982</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>33.338199202490017</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>51.681447161072349</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>42.580395753773104</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>41.052786819545439</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>40.679508361497945</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>43.54480212202661</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>20.879199632990222</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>54.227157206953116</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>31.532884890972621</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>24.454642024287025</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>45.209256235357884</v>
@@ -743,55 +629,55 @@
         <v>16.477026362782993</v>
       </c>
       <c r="AA3">
-        <v>45.787566399543479</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>25.90442495388028</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>17.796304441218066</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>33.292069428145439</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>16.13576076318386</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>31.21867498110548</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>30.50586891436966</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>32.973603643814762</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>34.468970038281405</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>47.646743454238013</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>24.897744234982955</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>29.833535459243762</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>48.227829849952386</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>16.874953978815267</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>40.913077590392639</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>27.361551358234042</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>22.482643075449936</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>37.6827276375341</v>

--- a/data_output/prism_passive/all_passive_torque at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at subject max ROM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>55.040742619422694</v>
+        <v>17.475217118104748</v>
       </c>
       <c r="C2">
-        <v>42.664273186244408</v>
+        <v>46.915574224234724</v>
       </c>
       <c r="D2">
-        <v>24.450633353233794</v>
+        <v>17.815848497584529</v>
       </c>
       <c r="E2">
-        <v>36.112590843456104</v>
+        <v>33.959880252933111</v>
       </c>
       <c r="F2">
         <v>36.102830890859835</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>73.26348329679432</v>
+        <v>21.561630270302388</v>
       </c>
       <c r="C3">
-        <v>31.709113119436655</v>
+        <v>25.305169314230415</v>
       </c>
       <c r="D3">
-        <v>24.257179325672027</v>
+        <v>17.426995298519632</v>
       </c>
       <c r="E3">
-        <v>81.001436101520682</v>
+        <v>21.964335007884028</v>
       </c>
       <c r="F3">
         <v>17.944729911506482</v>

--- a/data_output/prism_passive/all_passive_torque at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at subject max ROM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>55.040742619422694</v>
+        <v>49.443367045917803</v>
       </c>
       <c r="C2">
-        <v>42.664273186244408</v>
+        <v>21.928985080686441</v>
       </c>
       <c r="D2">
-        <v>24.450633353233794</v>
+        <v>56.186296641910367</v>
       </c>
       <c r="E2">
-        <v>36.112590843456104</v>
+        <v>20.821599490754718</v>
       </c>
       <c r="F2">
         <v>36.102830890859835</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>73.26348329679432</v>
+        <v>46.028977094461943</v>
       </c>
       <c r="C3">
-        <v>31.709113119436655</v>
+        <v>21.561630270302388</v>
       </c>
       <c r="D3">
-        <v>24.257179325672027</v>
+        <v>50.973192801965183</v>
       </c>
       <c r="E3">
-        <v>81.001436101520682</v>
+        <v>17.426995298519632</v>
       </c>
       <c r="F3">
         <v>17.944729911506482</v>

--- a/data_output/prism_passive/all_passive_torque at subject max ROM.xlsx
+++ b/data_output/prism_passive/all_passive_torque at subject max ROM.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>58.849386598550133</v>
+      </c>
+      <c r="C2">
+        <v>42.66427267144028</v>
+      </c>
+      <c r="D2">
+        <v>51.052589781933364</v>
+      </c>
+      <c r="E2">
+        <v>77.572980158276835</v>
+      </c>
+      <c r="F2">
+        <v>36.102830585574402</v>
+      </c>
+      <c r="G2">
+        <v>39.222086335790287</v>
+      </c>
+      <c r="H2">
+        <v>58.142472071151197</v>
+      </c>
+      <c r="I2">
+        <v>44.143518507232017</v>
+      </c>
+      <c r="J2">
+        <v>62.055657581578579</v>
+      </c>
+      <c r="K2">
+        <v>60.154704309626375</v>
+      </c>
+      <c r="L2">
+        <v>47.455162272168089</v>
+      </c>
+      <c r="M2">
+        <v>41.533318357311146</v>
+      </c>
+      <c r="N2">
         <v>49.443367045917803</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>21.928985080686441</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>50.226431085206308</v>
+      </c>
+      <c r="Q2">
+        <v>28.031183610252839</v>
+      </c>
+      <c r="R2">
+        <v>46.915574224234724</v>
+      </c>
+      <c r="S2">
+        <v>78.958287006979688</v>
+      </c>
+      <c r="T2">
+        <v>41.880542598222547</v>
+      </c>
+      <c r="U2">
+        <v>26.033090572165197</v>
+      </c>
+      <c r="V2">
+        <v>63.809414779390785</v>
+      </c>
+      <c r="W2">
+        <v>55.995813709323521</v>
+      </c>
+      <c r="X2">
+        <v>34.767785474994376</v>
+      </c>
+      <c r="Y2">
+        <v>32.714081501621401</v>
+      </c>
+      <c r="Z2">
+        <v>13.342175918867461</v>
+      </c>
+      <c r="AA2">
+        <v>67.504175821028738</v>
+      </c>
+      <c r="AB2">
+        <v>25.5482902039473</v>
+      </c>
+      <c r="AC2">
+        <v>43.725334293774701</v>
+      </c>
+      <c r="AD2">
+        <v>54.935316154545689</v>
+      </c>
+      <c r="AE2">
+        <v>22.393784059327626</v>
+      </c>
+      <c r="AF2">
+        <v>44.566091808569034</v>
+      </c>
+      <c r="AG2">
+        <v>32.170792253774003</v>
+      </c>
+      <c r="AH2">
+        <v>38.579294862307037</v>
+      </c>
+      <c r="AI2">
+        <v>52.378869551140404</v>
+      </c>
+      <c r="AJ2">
+        <v>71.587152206598503</v>
+      </c>
+      <c r="AK2">
+        <v>38.828262588598939</v>
+      </c>
+      <c r="AL2">
+        <v>37.331162081424992</v>
+      </c>
+      <c r="AM2">
         <v>56.186296641910367</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>20.821599490754718</v>
       </c>
-      <c r="F2">
-        <v>36.102830890859835</v>
-      </c>
-      <c r="G2">
-        <v>39.222086567205302</v>
-      </c>
-      <c r="H2">
-        <v>52.566089936875393</v>
-      </c>
-      <c r="I2">
-        <v>33.806166807924349</v>
-      </c>
-      <c r="J2">
-        <v>58.928335357356694</v>
-      </c>
-      <c r="K2">
-        <v>38.254441231662113</v>
-      </c>
-      <c r="L2">
-        <v>27.703371340234003</v>
-      </c>
-      <c r="M2">
-        <v>41.533318545681901</v>
-      </c>
-      <c r="N2">
-        <v>37.462954995739345</v>
-      </c>
-      <c r="O2">
-        <v>17.475217154337642</v>
-      </c>
-      <c r="P2">
-        <v>50.226431605408088</v>
-      </c>
-      <c r="Q2">
-        <v>28.031183712061718</v>
-      </c>
-      <c r="R2">
-        <v>46.915574364578276</v>
-      </c>
-      <c r="S2">
-        <v>64.375124665072875</v>
-      </c>
-      <c r="T2">
-        <v>41.880542674115055</v>
-      </c>
-      <c r="U2">
-        <v>20.648616261258962</v>
-      </c>
-      <c r="V2">
-        <v>40.963671704847691</v>
-      </c>
-      <c r="W2">
-        <v>30.075013781731442</v>
-      </c>
-      <c r="X2">
-        <v>19.191754302516671</v>
-      </c>
-      <c r="Y2">
-        <v>30.44346236500326</v>
-      </c>
-      <c r="Z2">
-        <v>13.342175940781411</v>
-      </c>
-      <c r="AA2">
-        <v>62.903016742461752</v>
-      </c>
-      <c r="AB2">
-        <v>25.548290476256614</v>
-      </c>
-      <c r="AC2">
-        <v>19.012655797439219</v>
-      </c>
-      <c r="AD2">
-        <v>19.753622707456469</v>
-      </c>
-      <c r="AE2">
-        <v>22.393784219242008</v>
-      </c>
-      <c r="AF2">
-        <v>44.566092149948304</v>
-      </c>
-      <c r="AG2">
-        <v>28.663402852558665</v>
-      </c>
-      <c r="AH2">
-        <v>29.397273200054176</v>
-      </c>
-      <c r="AI2">
-        <v>49.782583898300253</v>
-      </c>
-      <c r="AJ2">
-        <v>50.329611997940475</v>
-      </c>
-      <c r="AK2">
-        <v>23.521100515044807</v>
-      </c>
-      <c r="AL2">
-        <v>37.331162160469589</v>
-      </c>
-      <c r="AM2">
-        <v>45.735642055448331</v>
-      </c>
-      <c r="AN2">
-        <v>17.815848526427761</v>
-      </c>
       <c r="AO2">
-        <v>36.653783451461088</v>
+        <v>36.653783262925579</v>
       </c>
       <c r="AP2">
-        <v>27.394352620036884</v>
+        <v>27.394352524093858</v>
       </c>
       <c r="AQ2">
-        <v>33.959880316009681</v>
+        <v>33.959880252933111</v>
       </c>
       <c r="AR2">
-        <v>40.694360199955973</v>
+        <v>52.571573252313812</v>
       </c>
       <c r="AS2">
-        <v>37.015934980970172</v>
+        <v>37.015934870933243</v>
       </c>
       <c r="AT2">
-        <v>15.035148173292384</v>
+        <v>16.497622989262506</v>
       </c>
       <c r="AU2">
-        <v>39.858272096181679</v>
+        <v>63.033523293563569</v>
       </c>
       <c r="AV2">
-        <v>21.719064411806873</v>
+        <v>39.775623205925875</v>
       </c>
       <c r="AW2">
-        <v>14.948528728473386</v>
+        <v>22.045108860881768</v>
       </c>
       <c r="AX2">
-        <v>21.681091170886038</v>
+        <v>22.880338211923529</v>
       </c>
       <c r="AY2">
-        <v>14.213128374236668</v>
+        <v>14.213128346979806</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>73.263482168564437</v>
+      </c>
+      <c r="C3">
+        <v>50.125192079617932</v>
+      </c>
+      <c r="D3">
+        <v>24.257179174204619</v>
+      </c>
+      <c r="E3">
+        <v>81.001435598455359</v>
+      </c>
+      <c r="F3">
+        <v>23.282973996462033</v>
+      </c>
+      <c r="G3">
+        <v>55.722795992772227</v>
+      </c>
+      <c r="H3">
+        <v>58.013200854813704</v>
+      </c>
+      <c r="I3">
+        <v>34.494851263384106</v>
+      </c>
+      <c r="J3">
+        <v>55.761930180257856</v>
+      </c>
+      <c r="K3">
+        <v>44.811489670522214</v>
+      </c>
+      <c r="L3">
+        <v>43.86162726170781</v>
+      </c>
+      <c r="M3">
+        <v>60.141001937244276</v>
+      </c>
+      <c r="N3">
         <v>46.028977094461943</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>21.561630270302388</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>69.384517059993001</v>
+      </c>
+      <c r="Q3">
+        <v>35.578493968600647</v>
+      </c>
+      <c r="R3">
+        <v>34.378297974953064</v>
+      </c>
+      <c r="S3">
+        <v>46.738136529142103</v>
+      </c>
+      <c r="T3">
+        <v>43.908771744992883</v>
+      </c>
+      <c r="U3">
+        <v>26.143082886815716</v>
+      </c>
+      <c r="V3">
+        <v>43.634399363265885</v>
+      </c>
+      <c r="W3">
+        <v>30.165290453725571</v>
+      </c>
+      <c r="X3">
+        <v>25.292341277708605</v>
+      </c>
+      <c r="Y3">
+        <v>28.115581428475519</v>
+      </c>
+      <c r="Z3">
+        <v>17.13721439784543</v>
+      </c>
+      <c r="AA3">
+        <v>49.876250131354936</v>
+      </c>
+      <c r="AB3">
+        <v>47.331036331061796</v>
+      </c>
+      <c r="AC3">
+        <v>18.60269659566173</v>
+      </c>
+      <c r="AD3">
+        <v>35.693291200341996</v>
+      </c>
+      <c r="AE3">
+        <v>23.057241384172219</v>
+      </c>
+      <c r="AF3">
+        <v>43.797692852566804</v>
+      </c>
+      <c r="AG3">
+        <v>32.661550338870676</v>
+      </c>
+      <c r="AH3">
+        <v>28.784846440827135</v>
+      </c>
+      <c r="AI3">
+        <v>37.184636376139053</v>
+      </c>
+      <c r="AJ3">
+        <v>50.136383235446864</v>
+      </c>
+      <c r="AK3">
+        <v>26.59269212399974</v>
+      </c>
+      <c r="AL3">
+        <v>46.078757450837166</v>
+      </c>
+      <c r="AM3">
         <v>50.973192801965183</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>17.426995298519632</v>
       </c>
-      <c r="F3">
-        <v>17.944729911506482</v>
-      </c>
-      <c r="G3">
-        <v>45.557751640374313</v>
-      </c>
-      <c r="H3">
-        <v>58.013201401603737</v>
-      </c>
-      <c r="I3">
-        <v>34.494851339931976</v>
-      </c>
-      <c r="J3">
-        <v>55.761930739569301</v>
-      </c>
-      <c r="K3">
-        <v>44.811489879072504</v>
-      </c>
-      <c r="L3">
-        <v>43.861627581371444</v>
-      </c>
-      <c r="M3">
-        <v>41.998873016031979</v>
-      </c>
-      <c r="N3">
-        <v>46.028977359586925</v>
-      </c>
-      <c r="O3">
-        <v>21.561630329910894</v>
-      </c>
-      <c r="P3">
-        <v>56.973669948273773</v>
-      </c>
-      <c r="Q3">
-        <v>33.00516229277568</v>
-      </c>
-      <c r="R3">
-        <v>25.305169376585109</v>
-      </c>
-      <c r="S3">
-        <v>46.738136757611727</v>
-      </c>
-      <c r="T3">
-        <v>41.12189723431419</v>
-      </c>
-      <c r="U3">
-        <v>26.143082974959309</v>
-      </c>
-      <c r="V3">
-        <v>43.634399541948994</v>
-      </c>
-      <c r="W3">
-        <v>30.165290659692385</v>
-      </c>
-      <c r="X3">
-        <v>25.292341465649027</v>
-      </c>
-      <c r="Y3">
-        <v>28.115581531224777</v>
-      </c>
-      <c r="Z3">
-        <v>16.841736165127234</v>
-      </c>
-      <c r="AA3">
-        <v>49.87625077576417</v>
-      </c>
-      <c r="AB3">
-        <v>27.890115612858636</v>
-      </c>
-      <c r="AC3">
-        <v>18.602696668269839</v>
-      </c>
-      <c r="AD3">
-        <v>35.693291451309271</v>
-      </c>
-      <c r="AE3">
-        <v>17.05382975156537</v>
-      </c>
-      <c r="AF3">
-        <v>33.010603335695436</v>
-      </c>
-      <c r="AG3">
-        <v>32.661550645177513</v>
-      </c>
-      <c r="AH3">
-        <v>28.784846494423181</v>
-      </c>
-      <c r="AI3">
-        <v>37.184636672849244</v>
-      </c>
-      <c r="AJ3">
-        <v>50.136383479874716</v>
-      </c>
-      <c r="AK3">
-        <v>26.592692275582891</v>
-      </c>
-      <c r="AL3">
-        <v>30.801461839888006</v>
-      </c>
-      <c r="AM3">
-        <v>50.973193106667146</v>
-      </c>
-      <c r="AN3">
-        <v>17.426995343813129</v>
-      </c>
       <c r="AO3">
-        <v>42.980714745818808</v>
+        <v>49.882504996065393</v>
       </c>
       <c r="AP3">
-        <v>28.640275670668341</v>
+        <v>30.337357481724819</v>
       </c>
       <c r="AQ3">
-        <v>21.964335067205585</v>
+        <v>28.425872578541874</v>
       </c>
       <c r="AR3">
-        <v>38.958971224454281</v>
+        <v>38.958971092358688</v>
       </c>
       <c r="AS3">
-        <v>31.225901771981498</v>
+        <v>33.484530488642058</v>
       </c>
       <c r="AT3">
-        <v>14.948640226142183</v>
+        <v>14.948640193078509</v>
       </c>
       <c r="AU3">
-        <v>40.139946445200138</v>
+        <v>40.139946348591174</v>
       </c>
       <c r="AV3">
-        <v>21.32810172227509</v>
+        <v>21.328101622351124</v>
       </c>
       <c r="AW3">
-        <v>17.322290773675064</v>
+        <v>17.32229070832831</v>
       </c>
       <c r="AX3">
-        <v>28.791004957695531</v>
+        <v>28.791004872386925</v>
       </c>
       <c r="AY3">
-        <v>19.714573890716643</v>
+        <v>20.385271720188374</v>
       </c>
     </row>
   </sheetData>
